--- a/inputdata.xlsx
+++ b/inputdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srinivasan.vishwas/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\EndtoEndProject\emailfabrication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A28B38BF-500D-1C4A-8708-E63BF20516C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61048749-609F-4CE2-A7D9-D599A01AF199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{8BD37C27-79F2-4F4E-B525-BD2AAAAD13A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8BD37C27-79F2-4F4E-B525-BD2AAAAD13A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -514,13 +512,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE66A5A3-FF4F-3647-9276-86B3364E6B90}">
   <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I149" sqref="I149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="19.09765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -560,7 +561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -580,7 +581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -600,7 +601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -620,7 +621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -640,7 +641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -660,7 +661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -680,7 +681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -700,7 +701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -720,7 +721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -740,7 +741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -760,7 +761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -780,7 +781,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -800,7 +801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -820,7 +821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -840,7 +841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -860,7 +861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -880,7 +881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -900,7 +901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -920,7 +921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -940,7 +941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -960,7 +961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -980,7 +981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1000,7 +1001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1020,7 +1021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1040,7 +1041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1060,7 +1061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1080,7 +1081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1100,7 +1101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1120,7 +1121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1140,7 +1141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1160,7 +1161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1180,7 +1181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1200,7 +1201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1220,7 +1221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1240,7 +1241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1260,7 +1261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1280,7 +1281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1300,7 +1301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1340,7 +1341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1360,7 +1361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1400,7 +1401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1420,7 +1421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1440,7 +1441,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1460,7 +1461,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1500,7 +1501,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -1520,7 +1521,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -1540,7 +1541,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1560,7 +1561,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -1580,7 +1581,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -1600,7 +1601,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -1620,7 +1621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -1640,7 +1641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -1660,7 +1661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -1680,7 +1681,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -1700,7 +1701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -1720,7 +1721,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -1740,7 +1741,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -1780,7 +1781,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -1800,7 +1801,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -1820,7 +1821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -1840,7 +1841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -1860,7 +1861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -1880,7 +1881,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -1900,7 +1901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -1920,7 +1921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -1940,7 +1941,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -1960,7 +1961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -1980,7 +1981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -2000,7 +2001,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -2020,7 +2021,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -2060,7 +2061,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -2080,7 +2081,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -2140,7 +2141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -2160,7 +2161,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -2180,7 +2181,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -2200,7 +2201,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -2220,7 +2221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -2240,7 +2241,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -2260,7 +2261,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -2340,7 +2341,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -2360,7 +2361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -2380,7 +2381,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -2420,7 +2421,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -2440,7 +2441,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -2480,7 +2481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -2500,7 +2501,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -2520,7 +2521,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -2540,7 +2541,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -2560,7 +2561,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -2580,7 +2581,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -2600,7 +2601,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -2620,7 +2621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -2640,7 +2641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -2660,7 +2661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -2680,7 +2681,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -2700,7 +2701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -2720,7 +2721,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>6</v>
       </c>
@@ -2740,7 +2741,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -2760,7 +2761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>6</v>
       </c>
@@ -2780,7 +2781,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -2800,7 +2801,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -2820,7 +2821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -2840,7 +2841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -2860,7 +2861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -2900,7 +2901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -2920,7 +2921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -2940,7 +2941,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -2980,7 +2981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -3000,7 +3001,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -3020,7 +3021,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -3040,7 +3041,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -3060,7 +3061,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -3080,7 +3081,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -3100,7 +3101,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -3120,7 +3121,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -3140,7 +3141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -3160,7 +3161,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>6</v>
       </c>
@@ -3180,7 +3181,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -3200,7 +3201,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -3220,7 +3221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>6</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -3260,7 +3261,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -3280,7 +3281,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -3300,7 +3301,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -3320,7 +3321,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -3340,7 +3341,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -3360,7 +3361,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -3380,7 +3381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -3400,7 +3401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -3420,7 +3421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -3440,7 +3441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -3460,7 +3461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -3480,7 +3481,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -3500,7 +3501,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -3520,7 +3521,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -3540,7 +3541,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -3560,7 +3561,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -3580,7 +3581,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -3600,7 +3601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -3620,7 +3621,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -3640,7 +3641,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -3660,7 +3661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>6</v>
       </c>
@@ -3680,7 +3681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>6</v>
       </c>
@@ -3700,7 +3701,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -3720,7 +3721,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -3740,7 +3741,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -3760,7 +3761,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -3780,7 +3781,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -3800,7 +3801,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>6</v>
       </c>
@@ -3820,7 +3821,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -3840,7 +3841,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -3860,7 +3861,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -3880,7 +3881,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -3900,7 +3901,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -3920,7 +3921,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>6</v>
       </c>
@@ -3940,7 +3941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -3960,7 +3961,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -3980,7 +3981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -4000,7 +4001,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>6</v>
       </c>
@@ -4020,7 +4021,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>6</v>
       </c>
@@ -4040,7 +4041,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -4060,7 +4061,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>6</v>
       </c>
@@ -4080,7 +4081,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>6</v>
       </c>
@@ -4100,7 +4101,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>6</v>
       </c>
@@ -4120,7 +4121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>6</v>
       </c>
@@ -4140,7 +4141,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -4160,7 +4161,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>6</v>
       </c>
@@ -4180,7 +4181,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>6</v>
       </c>
@@ -4200,7 +4201,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -4220,7 +4221,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>6</v>
       </c>
@@ -4240,7 +4241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>6</v>
       </c>
@@ -4260,7 +4261,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>6</v>
       </c>
@@ -4280,7 +4281,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>6</v>
       </c>
@@ -4300,7 +4301,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>6</v>
       </c>
@@ -4320,7 +4321,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>6</v>
       </c>
